--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Igf2-Igf2r.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Igf2-Igf2r.xlsx
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>13.24090133333333</v>
+        <v>5.433768000000001</v>
       </c>
       <c r="H2">
-        <v>39.722704</v>
+        <v>16.301304</v>
       </c>
       <c r="I2">
-        <v>0.1214410874295642</v>
+        <v>0.1262505823713576</v>
       </c>
       <c r="J2">
-        <v>0.1214410874295642</v>
+        <v>0.1262505823713576</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>36.51515999999999</v>
+        <v>10.61298733333333</v>
       </c>
       <c r="N2">
-        <v>109.54548</v>
+        <v>31.838962</v>
       </c>
       <c r="O2">
-        <v>0.3318909895952502</v>
+        <v>0.1371494889257481</v>
       </c>
       <c r="P2">
-        <v>0.3318909895952502</v>
+        <v>0.1371494889257481</v>
       </c>
       <c r="Q2">
-        <v>483.4936307308799</v>
+        <v>57.668510956272</v>
       </c>
       <c r="R2">
-        <v>4351.442676577919</v>
+        <v>519.016598606448</v>
       </c>
       <c r="S2">
-        <v>0.04030520268452138</v>
+        <v>0.01731520284880977</v>
       </c>
       <c r="T2">
-        <v>0.04030520268452137</v>
+        <v>0.01731520284880976</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>13.24090133333333</v>
+        <v>5.433768000000001</v>
       </c>
       <c r="H3">
-        <v>39.722704</v>
+        <v>16.301304</v>
       </c>
       <c r="I3">
-        <v>0.1214410874295642</v>
+        <v>0.1262505823713576</v>
       </c>
       <c r="J3">
-        <v>0.1214410874295642</v>
+        <v>0.1262505823713576</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -614,28 +614,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>42.264553</v>
+        <v>42.26455300000001</v>
       </c>
       <c r="N3">
         <v>126.793659</v>
       </c>
       <c r="O3">
-        <v>0.3841479626536184</v>
+        <v>0.5461762707865787</v>
       </c>
       <c r="P3">
-        <v>0.3841479626536184</v>
+        <v>0.5461762707865786</v>
       </c>
       <c r="Q3">
-        <v>559.6207761704374</v>
+        <v>229.6557756257041</v>
       </c>
       <c r="R3">
-        <v>5036.586985533936</v>
+        <v>2066.901980631337</v>
       </c>
       <c r="S3">
-        <v>0.04665134631850706</v>
+        <v>0.06895507226422189</v>
       </c>
       <c r="T3">
-        <v>0.04665134631850705</v>
+        <v>0.06895507226422186</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>13.24090133333333</v>
+        <v>5.433768000000001</v>
       </c>
       <c r="H4">
-        <v>39.722704</v>
+        <v>16.301304</v>
       </c>
       <c r="I4">
-        <v>0.1214410874295642</v>
+        <v>0.1262505823713576</v>
       </c>
       <c r="J4">
-        <v>0.1214410874295642</v>
+        <v>0.1262505823713576</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>31.24183366666666</v>
+        <v>24.50508366666667</v>
       </c>
       <c r="N4">
-        <v>93.72550099999999</v>
+        <v>73.51525100000001</v>
       </c>
       <c r="O4">
-        <v>0.2839610477511315</v>
+        <v>0.3166742402876732</v>
       </c>
       <c r="P4">
-        <v>0.2839610477511314</v>
+        <v>0.3166742402876732</v>
       </c>
       <c r="Q4">
-        <v>413.6700370527449</v>
+        <v>133.154939465256</v>
       </c>
       <c r="R4">
-        <v>3723.030333474704</v>
+        <v>1198.394455187304</v>
       </c>
       <c r="S4">
-        <v>0.03448453842653582</v>
+        <v>0.03998030725832599</v>
       </c>
       <c r="T4">
-        <v>0.03448453842653582</v>
+        <v>0.03998030725832597</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,16 +720,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>5.270503666666667</v>
+        <v>5.270503666666666</v>
       </c>
       <c r="H5">
         <v>15.811511</v>
       </c>
       <c r="I5">
-        <v>0.0483392844994771</v>
+        <v>0.1224572262391479</v>
       </c>
       <c r="J5">
-        <v>0.0483392844994771</v>
+        <v>0.1224572262391479</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>36.51515999999999</v>
+        <v>10.61298733333333</v>
       </c>
       <c r="N5">
-        <v>109.54548</v>
+        <v>31.838962</v>
       </c>
       <c r="O5">
-        <v>0.3318909895952502</v>
+        <v>0.1371494889257481</v>
       </c>
       <c r="P5">
-        <v>0.3318909895952502</v>
+        <v>0.1371494889257481</v>
       </c>
       <c r="Q5">
-        <v>192.45328466892</v>
+        <v>55.93578865462022</v>
       </c>
       <c r="R5">
-        <v>1732.07956202028</v>
+        <v>503.422097891582</v>
       </c>
       <c r="S5">
-        <v>0.01604337296885779</v>
+        <v>0.01679494599396385</v>
       </c>
       <c r="T5">
-        <v>0.01604337296885779</v>
+        <v>0.01679494599396385</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,16 +782,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>5.270503666666667</v>
+        <v>5.270503666666666</v>
       </c>
       <c r="H6">
         <v>15.811511</v>
       </c>
       <c r="I6">
-        <v>0.0483392844994771</v>
+        <v>0.1224572262391479</v>
       </c>
       <c r="J6">
-        <v>0.0483392844994771</v>
+        <v>0.1224572262391479</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -800,16 +800,16 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>42.264553</v>
+        <v>42.26455300000001</v>
       </c>
       <c r="N6">
         <v>126.793659</v>
       </c>
       <c r="O6">
-        <v>0.3841479626536184</v>
+        <v>0.5461762707865787</v>
       </c>
       <c r="P6">
-        <v>0.3841479626536184</v>
+        <v>0.5461762707865786</v>
       </c>
       <c r="Q6">
         <v>222.7554815565277</v>
@@ -818,10 +818,10 @@
         <v>2004.799334008749</v>
       </c>
       <c r="S6">
-        <v>0.01856943765660777</v>
+        <v>0.06688323115816619</v>
       </c>
       <c r="T6">
-        <v>0.01856943765660776</v>
+        <v>0.06688323115816616</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,16 +844,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>5.270503666666667</v>
+        <v>5.270503666666666</v>
       </c>
       <c r="H7">
         <v>15.811511</v>
       </c>
       <c r="I7">
-        <v>0.0483392844994771</v>
+        <v>0.1224572262391479</v>
       </c>
       <c r="J7">
-        <v>0.0483392844994771</v>
+        <v>0.1224572262391479</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>31.24183366666666</v>
+        <v>24.50508366666667</v>
       </c>
       <c r="N7">
-        <v>93.72550099999999</v>
+        <v>73.51525100000001</v>
       </c>
       <c r="O7">
-        <v>0.2839610477511315</v>
+        <v>0.3166742402876732</v>
       </c>
       <c r="P7">
-        <v>0.2839610477511314</v>
+        <v>0.3166742402876732</v>
       </c>
       <c r="Q7">
-        <v>164.6601988935568</v>
+        <v>129.1541333171401</v>
       </c>
       <c r="R7">
-        <v>1481.941790042011</v>
+        <v>1162.387199854261</v>
       </c>
       <c r="S7">
-        <v>0.01372647387401155</v>
+        <v>0.03877904908701788</v>
       </c>
       <c r="T7">
-        <v>0.01372647387401154</v>
+        <v>0.03877904908701788</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>90.52007366666665</v>
+        <v>32.33527633333333</v>
       </c>
       <c r="H8">
-        <v>271.560221</v>
+        <v>97.00582900000001</v>
       </c>
       <c r="I8">
-        <v>0.8302196280709587</v>
+        <v>0.7512921913894945</v>
       </c>
       <c r="J8">
-        <v>0.8302196280709586</v>
+        <v>0.7512921913894944</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>36.51515999999999</v>
+        <v>10.61298733333333</v>
       </c>
       <c r="N8">
-        <v>109.54548</v>
+        <v>31.838962</v>
       </c>
       <c r="O8">
-        <v>0.3318909895952502</v>
+        <v>0.1371494889257481</v>
       </c>
       <c r="P8">
-        <v>0.3318909895952502</v>
+        <v>0.1371494889257481</v>
       </c>
       <c r="Q8">
-        <v>3305.354973150119</v>
+        <v>343.1738781454998</v>
       </c>
       <c r="R8">
-        <v>29748.19475835107</v>
+        <v>3088.564903309498</v>
       </c>
       <c r="S8">
-        <v>0.2755424139418711</v>
+        <v>0.1030393400829745</v>
       </c>
       <c r="T8">
-        <v>0.275542413941871</v>
+        <v>0.1030393400829745</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>90.52007366666665</v>
+        <v>32.33527633333333</v>
       </c>
       <c r="H9">
-        <v>271.560221</v>
+        <v>97.00582900000001</v>
       </c>
       <c r="I9">
-        <v>0.8302196280709587</v>
+        <v>0.7512921913894945</v>
       </c>
       <c r="J9">
-        <v>0.8302196280709586</v>
+        <v>0.7512921913894944</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -986,28 +986,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>42.264553</v>
+        <v>42.26455300000001</v>
       </c>
       <c r="N9">
         <v>126.793659</v>
       </c>
       <c r="O9">
-        <v>0.3841479626536184</v>
+        <v>0.5461762707865787</v>
       </c>
       <c r="P9">
-        <v>0.3841479626536184</v>
+        <v>0.5461762707865786</v>
       </c>
       <c r="Q9">
-        <v>3825.790451048737</v>
+        <v>1366.636000359812</v>
       </c>
       <c r="R9">
-        <v>34432.11405943863</v>
+        <v>12299.72400323831</v>
       </c>
       <c r="S9">
-        <v>0.3189271786785037</v>
+        <v>0.4103379673641907</v>
       </c>
       <c r="T9">
-        <v>0.3189271786785036</v>
+        <v>0.4103379673641905</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>90.52007366666665</v>
+        <v>32.33527633333333</v>
       </c>
       <c r="H10">
-        <v>271.560221</v>
+        <v>97.00582900000001</v>
       </c>
       <c r="I10">
-        <v>0.8302196280709587</v>
+        <v>0.7512921913894945</v>
       </c>
       <c r="J10">
-        <v>0.8302196280709586</v>
+        <v>0.7512921913894944</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>31.24183366666666</v>
+        <v>24.50508366666667</v>
       </c>
       <c r="N10">
-        <v>93.72550099999999</v>
+        <v>73.51525100000001</v>
       </c>
       <c r="O10">
-        <v>0.2839610477511315</v>
+        <v>0.3166742402876732</v>
       </c>
       <c r="P10">
-        <v>0.2839610477511314</v>
+        <v>0.3166742402876732</v>
       </c>
       <c r="Q10">
-        <v>2828.013084988413</v>
+        <v>792.37865193312</v>
       </c>
       <c r="R10">
-        <v>25452.11776489572</v>
+        <v>7131.40786739808</v>
       </c>
       <c r="S10">
-        <v>0.2357500354505841</v>
+        <v>0.2379148839423293</v>
       </c>
       <c r="T10">
-        <v>0.235750035450584</v>
+        <v>0.2379148839423293</v>
       </c>
     </row>
   </sheetData>
